--- a/pivot_table.xlsx
+++ b/pivot_table.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="PivotTable" sheetId="1" r:id="rId1"/>
+    <sheet name="Pivot Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -52,7 +52,7 @@
     <t>Count of Status</t>
   </si>
   <si>
-    <t>ffxqa</t>
+    <t>open</t>
   </si>
   <si>
     <t>resolved</t>
@@ -91,10 +91,10 @@
     <t>Create CR/SOW</t>
   </si>
   <si>
+    <t>Customer Generated Ticket</t>
+  </si>
+  <si>
     <t>Customer Testing</t>
-  </si>
-  <si>
-    <t>FFX Testing</t>
   </si>
   <si>
     <t>Meeting To Be Scheduled</t>
@@ -512,16 +512,16 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -552,16 +552,16 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -572,16 +572,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -619,13 +619,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -636,16 +636,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -687,16 +687,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
       </c>
       <c r="E14" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -760,16 +760,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -820,16 +820,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -867,16 +867,16 @@
         <v>7</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -884,13 +884,13 @@
         <v>8</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>5</v>
@@ -904,13 +904,13 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -918,16 +918,16 @@
         <v>10</v>
       </c>
       <c r="B31" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C31" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
       </c>
       <c r="E31" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F31" s="2"/>
     </row>
@@ -966,16 +966,16 @@
         <v>16</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -983,16 +983,16 @@
         <v>17</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1017,16 +1017,16 @@
         <v>10</v>
       </c>
       <c r="B38" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E38" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -1065,13 +1065,13 @@
         <v>8</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>5</v>
@@ -1082,16 +1082,16 @@
         <v>21</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1099,16 +1099,16 @@
         <v>10</v>
       </c>
       <c r="B44" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C44" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
       </c>
       <c r="E44" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F44" s="2"/>
     </row>
@@ -1147,16 +1147,16 @@
         <v>7</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1164,13 +1164,13 @@
         <v>8</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>5</v>
@@ -1184,13 +1184,13 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1198,16 +1198,16 @@
         <v>10</v>
       </c>
       <c r="B52" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C52" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D52" s="1">
         <v>3</v>
       </c>
       <c r="E52" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F52" s="2"/>
     </row>
@@ -1263,16 +1263,16 @@
         <v>25</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1280,16 +1280,16 @@
         <v>26</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1314,16 +1314,16 @@
         <v>10</v>
       </c>
       <c r="B60" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C60" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D60" s="1">
         <v>3</v>
       </c>
       <c r="E60" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F60" s="2"/>
     </row>

--- a/pivot_table.xlsx
+++ b/pivot_table.xlsx
@@ -14,7 +14,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
+  <si>
+    <t>Create CR/SOW</t>
+  </si>
+  <si>
+    <t>Customer Generated Ticket</t>
+  </si>
+  <si>
+    <t>Customer Testing</t>
+  </si>
+  <si>
+    <t>Meeting To Be Scheduled</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>CAC</t>
+  </si>
+  <si>
+    <t>FFX</t>
+  </si>
+  <si>
+    <t>MOF</t>
+  </si>
   <si>
     <t>Count of CAC/MOF Requestor</t>
   </si>
@@ -22,85 +49,46 @@
     <t>Column Labels</t>
   </si>
   <si>
-    <t>Unnamed: 2</t>
-  </si>
-  <si>
-    <t>Unnamed: 3</t>
-  </si>
-  <si>
-    <t>Unnamed: 4</t>
-  </si>
-  <si>
-    <t>Unnamed: 5</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>CAC</t>
-  </si>
-  <si>
-    <t>FFX</t>
-  </si>
-  <si>
-    <t>MOF</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
+    <t>Severity 2</t>
+  </si>
+  <si>
+    <t>Severity 3</t>
+  </si>
+  <si>
+    <t>Severity 4</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>resolved</t>
+  </si>
+  <si>
+    <t>stalled</t>
+  </si>
+  <si>
+    <t>started</t>
   </si>
   <si>
     <t>Count of Status</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>resolved</t>
-  </si>
-  <si>
-    <t>stalled</t>
-  </si>
-  <si>
-    <t>started</t>
-  </si>
-  <si>
-    <t>Severity 2</t>
-  </si>
-  <si>
-    <t>Severity 3</t>
-  </si>
-  <si>
-    <t>Severity 4</t>
+    <t>Ministry/FFX Owner</t>
+  </si>
+  <si>
+    <t>Ministry</t>
   </si>
   <si>
     <t>Count of Ministry/FFX Owner</t>
   </si>
   <si>
-    <t>Ministry/FFX Owner</t>
-  </si>
-  <si>
-    <t>Ministry</t>
+    <t>CustomField.{Ticket Severity}</t>
+  </si>
+  <si>
+    <t>CAC/MOF/FFX Owner</t>
   </si>
   <si>
     <t>Count of CAC/MOF/FFX Owner</t>
-  </si>
-  <si>
-    <t>CAC/MOF/FFX Owner</t>
-  </si>
-  <si>
-    <t>Create CR/SOW</t>
-  </si>
-  <si>
-    <t>Customer Generated Ticket</t>
-  </si>
-  <si>
-    <t>Customer Testing</t>
-  </si>
-  <si>
-    <t>Meeting To Be Scheduled</t>
-  </si>
-  <si>
-    <t>CustomField.{Ticket Severity}</t>
   </si>
 </sst>
 </file>
@@ -124,18 +112,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -148,16 +130,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF8EA9DB"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF8EA9DB"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF8EA9DB"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF8EA9DB"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -165,10 +147,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,85 +451,78 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="26" width="16.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -566,91 +542,86 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>14</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -666,8 +637,8 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>15</v>
+      <c r="A13" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -684,57 +655,52 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>12</v>
+      <c r="A19" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -753,8 +719,8 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>13</v>
+      <c r="A20" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -773,8 +739,8 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>14</v>
+      <c r="A21" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -793,8 +759,8 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>15</v>
+      <c r="A22" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -814,74 +780,69 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="1">
-        <v>8</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="2"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>8</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -897,8 +858,8 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>9</v>
+      <c r="A30" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -915,154 +876,142 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="1">
-        <v>6</v>
-      </c>
-      <c r="C31" s="1">
-        <v>4</v>
-      </c>
-      <c r="D31" s="1">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1">
-        <v>13</v>
-      </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="E35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="1">
-        <v>6</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <v>6</v>
-      </c>
-      <c r="E38" s="1">
-        <v>13</v>
-      </c>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>8</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -1077,9 +1026,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>21</v>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -1094,74 +1043,68 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="1">
-        <v>6</v>
-      </c>
-      <c r="C44" s="1">
-        <v>4</v>
-      </c>
-      <c r="D44" s="1">
-        <v>3</v>
-      </c>
-      <c r="E44" s="1">
-        <v>13</v>
-      </c>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6">
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B49">
-        <v>2</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>8</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -1176,9 +1119,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>9</v>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -1193,57 +1136,51 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="1">
-        <v>6</v>
-      </c>
-      <c r="C52" s="1">
-        <v>4</v>
-      </c>
-      <c r="D52" s="1">
-        <v>3</v>
-      </c>
-      <c r="E52" s="1">
-        <v>13</v>
-      </c>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1" t="s">
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -1258,9 +1195,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>25</v>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1275,9 +1212,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>26</v>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -1292,9 +1229,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>27</v>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1309,23 +1246,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="1">
-        <v>6</v>
-      </c>
-      <c r="C60" s="1">
-        <v>4</v>
-      </c>
-      <c r="D60" s="1">
-        <v>3</v>
-      </c>
-      <c r="E60" s="1">
-        <v>13</v>
-      </c>
-      <c r="F60" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
